--- a/test_results.xlsx
+++ b/test_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,7 +485,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H1 tag existence</t>
+          <t>HTML tag sequence</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -495,7 +495,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>H1 tag exists</t>
+          <t>All tags h1-h6 are present</t>
         </is>
       </c>
     </row>
@@ -507,17 +507,83 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>H1 tag existence</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>H1 tag exists</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>Image alt attribute</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>All images have alt attributes</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Currency filter</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Timeout waiting for element: Message: 
+Stacktrace:
+#0 0x63c25a29e34a &lt;unknown&gt;
+#1 0x63c259db46e0 &lt;unknown&gt;
+#2 0x63c259e033e6 &lt;unknown&gt;
+#3 0x63c259e03681 &lt;unknown&gt;
+#4 0x63c259e48b04 &lt;unknown&gt;
+#5 0x63c259e2748d &lt;unknown&gt;
+#6 0x63c259e45ed7 &lt;unknown&gt;
+#7 0x63c259e27203 &lt;unknown&gt;
+#8 0x63c259df5cc0 &lt;unknown&gt;
+#9 0x63c259df6c9e &lt;unknown&gt;
+#10 0x63c25a26bd3b &lt;unknown&gt;
+#11 0x63c25a26fcc2 &lt;unknown&gt;
+#12 0x63c25a258b6c &lt;unknown&gt;
+#13 0x63c25a270837 &lt;unknown&gt;
+#14 0x63c25a23e10f &lt;unknown&gt;
+#15 0x63c25a28d5a8 &lt;unknown&gt;
+#16 0x63c25a28d770 &lt;unknown&gt;
+#17 0x63c25a29d1c6 &lt;unknown&gt;
+#18 0x7af9d089ca94 &lt;unknown&gt;
+#19 0x7af9d0929c3c &lt;unknown&gt;
+</t>
         </is>
       </c>
     </row>
